--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +576,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -611,28 +623,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -657,28 +669,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -882,10 +894,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -929,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -975,28 +987,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1084,10 +1096,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1131,28 +1143,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1177,28 +1189,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1344,10 +1356,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1391,28 +1403,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1437,28 +1449,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1604,10 +1616,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1651,28 +1663,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1697,28 +1709,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1835,10 +1847,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1882,28 +1894,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1928,28 +1940,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2124,10 +2136,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2171,28 +2183,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2217,28 +2229,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2384,10 +2396,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2431,28 +2443,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2477,28 +2489,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2644,10 +2656,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2691,28 +2703,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2737,28 +2749,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2933,10 +2945,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2980,28 +2992,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3026,28 +3038,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3193,10 +3205,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3240,28 +3252,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3286,28 +3298,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3424,10 +3436,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3471,28 +3483,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3517,28 +3529,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3684,10 +3696,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3731,28 +3743,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3777,28 +3789,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3915,10 +3927,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3962,28 +3974,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4008,28 +4020,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4146,10 +4158,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4193,28 +4205,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4239,28 +4251,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4348,10 +4360,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4395,28 +4407,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4441,28 +4453,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4579,10 +4591,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4626,28 +4638,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4672,28 +4684,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4781,10 +4793,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4828,28 +4840,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4874,28 +4886,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4954,10 +4966,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5001,28 +5013,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5047,28 +5059,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5243,10 +5255,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5290,28 +5302,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5336,28 +5348,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5445,10 +5457,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5492,28 +5504,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5538,28 +5550,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5676,10 +5688,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5723,28 +5735,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5769,28 +5781,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5849,10 +5861,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5896,28 +5908,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5942,28 +5954,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6022,10 +6034,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6069,28 +6081,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6115,28 +6127,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6224,10 +6236,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6271,28 +6283,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6317,28 +6329,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6455,10 +6467,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6502,28 +6514,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6548,28 +6560,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6657,10 +6669,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6704,28 +6716,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6750,28 +6762,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6830,10 +6842,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6877,28 +6889,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6923,28 +6935,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7032,10 +7044,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7079,28 +7091,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7125,28 +7137,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7205,10 +7217,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7252,28 +7264,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7298,28 +7310,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7378,10 +7390,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7425,28 +7437,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7471,28 +7483,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7551,10 +7563,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7598,28 +7610,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7644,28 +7656,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7724,10 +7736,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7771,28 +7783,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7817,28 +7829,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7897,10 +7909,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7944,28 +7956,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7990,28 +8002,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8070,10 +8082,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8117,28 +8129,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8163,28 +8175,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8243,10 +8255,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
